--- a/Semester-2/Теория вероятностей и матстат (16)/4 лаба/Лабораторная 4.xlsx
+++ b/Semester-2/Теория вероятностей и матстат (16)/4 лаба/Лабораторная 4.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\University\Semester-2\Теория вероятностей и матстат (16)\4 лаба\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsidorov/Documents/GitHub/University/Semester-2/Теория вероятностей и матстат (16)/4 лаба/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF34E0E9-5E54-41C5-BA50-AB829865C38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E7F4E3-357F-E042-A94B-BAA9CF846CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4530" yWindow="1815" windowWidth="32640" windowHeight="17910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Лист1!$C$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Лист1!$C$2:$C$21</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Лист1!$C$1</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Лист1!$C$2:$C$21</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -98,7 +104,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -167,10 +173,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -197,6 +203,1968 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Эмпирическая</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> функция</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t> распределения</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Эмпирическое расп</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.3479999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5359999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.173</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5490000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7270000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.9870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.93</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.1959999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.907</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.827999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.243</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.78</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.227</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.814</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.871</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.092000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.096</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.111000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.846</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-177E-7846-9468-D60E9F9BEDA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1655635023"/>
+        <c:axId val="1655567775"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1655635023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1655567775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1655567775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1655635023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Гистограмма эмпирического распределения</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Эмпирическое расп</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B343-4249-BE65-C05922CD8F9D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="72619328"/>
+        <c:axId val="56696688"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="72619328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="56696688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="56696688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="72619328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>15369</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>193655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1828961</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>24753</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35056B67-59DE-295B-A8EC-6EBA598984F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7280</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>185565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>308198</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>16663</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9A1CF44-02AF-4810-D41A-702DAADABCA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -464,21 +2432,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="157" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" customWidth="1"/>
-    <col min="5" max="5" width="40.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" customWidth="1"/>
+    <col min="5" max="5" width="40.5" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +2457,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>13.87</v>
       </c>
@@ -501,7 +2469,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>8.9290000000000003</v>
       </c>
@@ -520,7 +2488,7 @@
         <v>10.362300000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>14.845000000000001</v>
       </c>
@@ -539,7 +2507,7 @@
         <v>10.481905063157898</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>13.813000000000001</v>
       </c>
@@ -558,7 +2526,7 @@
         <v>3.2375770358646139</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>11.779</v>
       </c>
@@ -577,7 +2545,7 @@
         <v>0.31243807222958353</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>13.226000000000001</v>
       </c>
@@ -596,7 +2564,7 @@
         <v>-9.4152499715182275E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7.9859999999999998</v>
       </c>
@@ -615,7 +2583,7 @@
         <v>-1.4728792023590245</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>6.0039999999999996</v>
       </c>
@@ -634,7 +2602,7 @@
         <v>10.3665</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>11.242000000000001</v>
       </c>
@@ -653,7 +2621,7 @@
         <v>9.4980000000000011</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>14.090999999999999</v>
       </c>
@@ -672,7 +2640,7 @@
         <v>0.72394423345855508</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>5.5350000000000001</v>
       </c>
@@ -691,7 +2659,7 @@
         <v>2.0930240544083096</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>9.1950000000000003</v>
       </c>
@@ -707,7 +2675,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>5.3470000000000004</v>
       </c>
@@ -726,7 +2694,7 @@
         <v>8.84706730532106</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>7.1719999999999997</v>
       </c>
@@ -745,7 +2713,7 @@
         <v>11.877532694678942</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>10.827</v>
       </c>
@@ -761,7 +2729,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>7.548</v>
       </c>
@@ -780,7 +2748,7 @@
         <v>32.852326861729708</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>14.11</v>
       </c>
@@ -799,7 +2767,7 @@
         <v>8.9065164819879747</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>9.9060000000000006</v>
       </c>
@@ -812,7 +2780,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>14.095000000000001</v>
       </c>
@@ -831,7 +2799,7 @@
         <v>6.0621640907877623</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>7.726</v>
       </c>
@@ -857,5 +2825,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>